--- a/Project overview.xlsx
+++ b/Project overview.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16828"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meije\Documents\GitHub\Master-thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEIJERA\Documents\GitHub\Master-thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA17D04A-49AC-414B-8C02-6AF3B7B7CFE0}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{FAB4CA1D-7B71-4991-A0C8-20FF0C7ED26D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2205" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Project setup</t>
   </si>
@@ -82,16 +81,36 @@
   </si>
   <si>
     <t>[UvA] Thesis submission</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Readings</t>
+  </si>
+  <si>
+    <t>03-04-2018 / 06-04-2018</t>
+  </si>
+  <si>
+    <t>Thesis\Parts\Introduction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -114,10 +133,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -125,9 +145,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -151,29 +173,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4ED08CB0-680A-4C92-8F14-6B4B1ED03719}" name="Tabel1" displayName="Tabel1" ref="A16:D32" totalsRowShown="0">
-  <autoFilter ref="A16:D32" xr:uid="{AE373E5A-E6CA-48EF-9010-FCD558AB4071}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A16:D32" totalsRowShown="0">
+  <autoFilter ref="A16:D32"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C78D2EFC-F876-4C20-94D6-CCE3702A444F}" name="Planned Activities"/>
-    <tableColumn id="2" xr3:uid="{6128EEA5-E9E0-4A16-BCF7-6285032E2BCB}" name="Date" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{237F33D9-1402-4BE4-8CBC-68FF21E944B0}" name="Time" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{9CC1CB53-3D51-4E66-AC52-5958B31CD9D5}" name="Notes"/>
+    <tableColumn id="1" name="Planned Activities"/>
+    <tableColumn id="2" name="Date" dataDxfId="1"/>
+    <tableColumn id="3" name="Time" dataDxfId="0"/>
+    <tableColumn id="4" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CCEFD0A1-34C0-4A9E-B3C4-ADC2C61E6BD9}" name="Tabel2" displayName="Tabel2" ref="A1:G4" totalsRowShown="0">
-  <autoFilter ref="A1:G4" xr:uid="{191227BD-E38B-4E9B-AD4C-A71FE76E03A5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel2" displayName="Tabel2" ref="A1:G4" totalsRowShown="0">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{1B9AFF3B-424C-4F3E-8B52-0BCCE616572F}" name="Project setup"/>
-    <tableColumn id="2" xr3:uid="{6C77B87B-6303-4826-A0DD-C6D4E9CAA419}" name="Description"/>
-    <tableColumn id="3" xr3:uid="{B5C2E3A0-D49E-451F-8301-D2A57AA9716B}" name="Requirements"/>
-    <tableColumn id="4" xr3:uid="{3D984DB1-8578-41C1-8610-1FC044AB270C}" name="Timespan"/>
-    <tableColumn id="5" xr3:uid="{7F208A7E-FC99-49BA-8F8A-44F0551AB41C}" name="Notes"/>
-    <tableColumn id="6" xr3:uid="{02E9EF1A-06CC-4A89-9351-288B84B35B27}" name="Changes in timespan"/>
-    <tableColumn id="7" xr3:uid="{50AA4C2E-4BCB-4B28-8ECF-39F547BD80CE}" name="Changes in goal"/>
+    <tableColumn id="1" name="Project setup"/>
+    <tableColumn id="2" name="Description"/>
+    <tableColumn id="3" name="Requirements"/>
+    <tableColumn id="4" name="Timespan"/>
+    <tableColumn id="5" name="Notes"/>
+    <tableColumn id="6" name="Changes in timespan"/>
+    <tableColumn id="7" name="Changes in goal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -475,11 +497,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDEE474-46AE-4B99-B73F-B193F909651D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,6 +542,18 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -638,10 +672,13 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Project overview.xlsx
+++ b/Project overview.xlsx
@@ -89,10 +89,10 @@
     <t>Readings</t>
   </si>
   <si>
-    <t>03-04-2018 / 06-04-2018</t>
-  </si>
-  <si>
     <t>Thesis\Parts\Introduction</t>
+  </si>
+  <si>
+    <t>03-04-2018 / 13-04-2018</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
